--- a/Src/manual_polarity.xlsx
+++ b/Src/manual_polarity.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Я\Desktop\ARP Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Я\Desktop\ARP project\ARP_Github\Src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29C755B-761E-4126-98E8-192F50E74735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259757D7-A8C0-4E7C-900B-1E0B643753F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D5F10D8F-80C8-5349-8657-CD65A48D66A3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{D5F10D8F-80C8-5349-8657-CD65A48D66A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$51</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="74">
   <si>
     <t>COMBINED-Q4-17-Shareholder-Letter-FINAL</t>
   </si>
@@ -74,9 +75,6 @@
     <t>Q3_14_Letter_to_shareholders</t>
   </si>
   <si>
-    <t>Q313-Earnings-Letter-10.21.13-10.30am</t>
-  </si>
-  <si>
     <t>Q2_17_Shareholder_Letter</t>
   </si>
   <si>
@@ -99,13 +97,7 @@
     <t>Q116LettertoShareholders_W_TABLES_</t>
   </si>
   <si>
-    <t>Q114-Earnings-Letter-4.21.14-final</t>
-  </si>
-  <si>
     <t>Q1-11-Letter-to-shareholders</t>
-  </si>
-  <si>
-    <t>July2014EarningsLetter_7.21.14_final</t>
   </si>
   <si>
     <t>July-Investor-Letter-1130am</t>
@@ -118,13 +110,7 @@
     <t>Investor_Letter_Q12013</t>
   </si>
   <si>
-    <t>Investor-Letter-Q42012-01.23.13</t>
-  </si>
-  <si>
     <t>Investor-Letter-Q4-2011</t>
-  </si>
-  <si>
-    <t>Investor-Letter-Q3-2012-10.23.12</t>
   </si>
   <si>
     <t>Investor-Letter-Q3-2011</t>
@@ -134,9 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Investor-Letter-Q2-2012-07.24.12</t>
-  </si>
-  <si>
     <t>Investor-Letter-Q1-2012</t>
   </si>
   <si>
@@ -219,6 +202,78 @@
   </si>
   <si>
     <t>FINAL-Q1-20-Shareholder-Letter</t>
+  </si>
+  <si>
+    <t>Very positive</t>
+  </si>
+  <si>
+    <t>Moderately positive</t>
+  </si>
+  <si>
+    <t>Slightly positive</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Slightly negative</t>
+  </si>
+  <si>
+    <t>very positive</t>
+  </si>
+  <si>
+    <t>Moderately Positive</t>
+  </si>
+  <si>
+    <t>slightly negative</t>
+  </si>
+  <si>
+    <t>highly Positive</t>
+  </si>
+  <si>
+    <t>moderately Positive</t>
+  </si>
+  <si>
+    <t>slightly Positive</t>
+  </si>
+  <si>
+    <t>highly positive</t>
+  </si>
+  <si>
+    <t>FINAL-Q2-18-Shareholder-Letter</t>
+  </si>
+  <si>
+    <t>FINAL-Q2-21-Shareholder-Letter</t>
+  </si>
+  <si>
+    <t>FINAL-Q3-19-Shareholder-Letter</t>
+  </si>
+  <si>
+    <t>Investor-Letter-Q2-2012-07</t>
+  </si>
+  <si>
+    <t>Investor-Letter-Q3-2012-10</t>
+  </si>
+  <si>
+    <t>Investor-Letter-Q42012-01</t>
+  </si>
+  <si>
+    <t>July2014EarningsLetter_7</t>
+  </si>
+  <si>
+    <t>Q1_15_Earnings_Letter_final_tables</t>
+  </si>
+  <si>
+    <t>Q114-Earnings-Letter-4</t>
+  </si>
+  <si>
+    <t>Q313-Earnings-Letter-10</t>
+  </si>
+  <si>
+    <t>Final-Q1-23-Shareholder-Letter</t>
+  </si>
+  <si>
+    <t>FINAL-Q2-20-Shareholder-Letter-V3-with-Tables</t>
   </si>
 </sst>
 </file>
@@ -242,7 +297,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,6 +307,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,7 +331,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -281,6 +342,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -599,13 +665,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57A2C49-F82B-7E47-A1BB-F00E2C6EA1FF}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:C10"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="55.5" customWidth="1"/>
+    <col min="5" max="5" width="30.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -619,7 +686,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -632,10 +699,13 @@
       <c r="C2">
         <v>1</v>
       </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1">
         <v>0.6</v>
@@ -643,10 +713,13 @@
       <c r="C3">
         <v>1</v>
       </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1">
         <v>0.55000000000000004</v>
@@ -654,10 +727,13 @@
       <c r="C4">
         <v>0</v>
       </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1">
         <v>0.6</v>
@@ -665,11 +741,14 @@
       <c r="C5">
         <v>1</v>
       </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1">
         <v>0.7</v>
@@ -677,10 +756,13 @@
       <c r="C6">
         <v>1</v>
       </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1">
         <v>0.7</v>
@@ -688,10 +770,13 @@
       <c r="C7">
         <v>1</v>
       </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B8" s="1">
         <v>0.55000000000000004</v>
@@ -699,10 +784,13 @@
       <c r="C8">
         <v>0</v>
       </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B9" s="1">
         <v>0.7</v>
@@ -710,10 +798,13 @@
       <c r="C9">
         <v>1</v>
       </c>
+      <c r="E9" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1">
         <v>0.65</v>
@@ -721,10 +812,13 @@
       <c r="C10">
         <v>1</v>
       </c>
+      <c r="E10" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B11" s="3">
         <v>0.75</v>
@@ -732,10 +826,13 @@
       <c r="C11" s="2">
         <v>1</v>
       </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1">
         <v>0.6</v>
@@ -743,10 +840,13 @@
       <c r="C12">
         <v>1</v>
       </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1">
         <v>0.55000000000000004</v>
@@ -754,10 +854,13 @@
       <c r="C13">
         <v>0</v>
       </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B14" s="1">
         <v>0.6</v>
@@ -765,10 +868,13 @@
       <c r="C14">
         <v>1</v>
       </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1">
         <v>0.65</v>
@@ -776,10 +882,13 @@
       <c r="C15">
         <v>1</v>
       </c>
+      <c r="E15" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B16" s="1">
         <v>0.65</v>
@@ -787,10 +896,13 @@
       <c r="C16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B17" s="1">
         <v>0.65</v>
@@ -798,10 +910,13 @@
       <c r="C17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B18" s="1">
         <v>0.6</v>
@@ -809,10 +924,13 @@
       <c r="C18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B19" s="1">
         <v>0.65</v>
@@ -820,10 +938,13 @@
       <c r="C19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B20" s="1">
         <v>0.65</v>
@@ -831,10 +952,13 @@
       <c r="C20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B21" s="3">
         <v>0.75</v>
@@ -842,10 +966,13 @@
       <c r="C21" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B22" s="1">
         <v>0.65</v>
@@ -853,10 +980,13 @@
       <c r="C22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B23" s="1">
         <v>0.65</v>
@@ -864,10 +994,13 @@
       <c r="C23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B24" s="1">
         <v>0.65</v>
@@ -875,10 +1008,13 @@
       <c r="C24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B25" s="1">
         <v>0.6</v>
@@ -886,10 +1022,13 @@
       <c r="C25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B26" s="1">
         <v>0.55000000000000004</v>
@@ -897,10 +1036,13 @@
       <c r="C26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B27" s="1">
         <v>0.45</v>
@@ -909,12 +1051,15 @@
         <v>-1</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="E27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1">
         <v>0.4</v>
@@ -923,12 +1068,15 @@
         <v>-1</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>25</v>
+      </c>
+      <c r="E28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="B29" s="1">
         <v>0.65</v>
@@ -936,24 +1084,30 @@
       <c r="C29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B30" s="1">
         <v>0.4</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>23</v>
+      </c>
+      <c r="E30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="B31" s="1">
         <v>0.6</v>
@@ -961,10 +1115,13 @@
       <c r="C31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B32" s="1">
         <v>0.65</v>
@@ -972,10 +1129,16 @@
       <c r="C32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="E32" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B33" s="1">
         <v>0.6</v>
@@ -983,10 +1146,16 @@
       <c r="C33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="E33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="B34" s="1">
         <v>0.6</v>
@@ -994,10 +1163,16 @@
       <c r="C34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="E34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B35" s="1">
         <v>0.65</v>
@@ -1005,10 +1180,16 @@
       <c r="C35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="E35" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B36" s="1">
         <v>0.7</v>
@@ -1016,10 +1197,16 @@
       <c r="C36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="E36" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B37" s="1">
         <v>0.75</v>
@@ -1027,10 +1214,16 @@
       <c r="C37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="E37" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="B38" s="1">
         <v>0.65</v>
@@ -1038,10 +1231,16 @@
       <c r="C38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="E38" t="s">
+        <v>53</v>
+      </c>
+      <c r="F38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B39" s="1">
         <v>0.7</v>
@@ -1049,10 +1248,16 @@
       <c r="C39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="E39" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B40" s="1">
         <v>0.75</v>
@@ -1060,10 +1265,16 @@
       <c r="C40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="E40" t="s">
+        <v>53</v>
+      </c>
+      <c r="F40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B41" s="1">
         <v>0.7</v>
@@ -1071,10 +1282,16 @@
       <c r="C41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="E41" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B42" s="1">
         <v>0.7</v>
@@ -1082,10 +1299,13 @@
       <c r="C42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="F42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B43" s="1">
         <v>0.6</v>
@@ -1093,10 +1313,13 @@
       <c r="C43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="F43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B44" s="1">
         <v>0.55000000000000004</v>
@@ -1104,8 +1327,11 @@
       <c r="C44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="F44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -1115,8 +1341,11 @@
       <c r="C45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="F45" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="2" t="s">
         <v>8</v>
       </c>
@@ -1126,10 +1355,13 @@
       <c r="C46" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="F46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="B47" s="1">
         <v>0.75</v>
@@ -1137,8 +1369,11 @@
       <c r="C47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="F47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -1148,8 +1383,11 @@
       <c r="C48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="F48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -1159,8 +1397,11 @@
       <c r="C49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="F49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -1170,8 +1411,11 @@
       <c r="C50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="F50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -1180,6 +1424,9 @@
       </c>
       <c r="C51">
         <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1191,4 +1438,801 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0B1DA4-651D-4DC6-BDF7-AC40A2C5DC6D}">
+  <dimension ref="A1:H50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <cols>
+    <col min="3" max="3" width="34.59765625" customWidth="1"/>
+    <col min="7" max="7" width="46.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="str">
+        <f>IF(COUNTIF(Sheet1!$A$2:$A$51, A1) &gt; 0, "Exists", "Doesn't Exist")</f>
+        <v>Exists</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="str">
+        <f>IF(COUNTIF($A$1:$A$47, G1) &gt; 0, "Exists", "Doesn't Exist")</f>
+        <v>Exists</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="str">
+        <f>IF(COUNTIF(Sheet1!$A$2:$A$51, A2) &gt; 0, "Exists", "Doesn't Exist")</f>
+        <v>Exists</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H50" si="0">IF(COUNTIF($A$1:$A$47, G2) &gt; 0, "Exists", "Doesn't Exist")</f>
+        <v>Exists</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="str">
+        <f>IF(COUNTIF(Sheet1!$A$2:$A$51, A3) &gt; 0, "Exists", "Doesn't Exist")</f>
+        <v>Exists</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="0"/>
+        <v>Exists</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="str">
+        <f>IF(COUNTIF(Sheet1!$A$2:$A$51, A4) &gt; 0, "Exists", "Doesn't Exist")</f>
+        <v>Exists</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>Exists</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="str">
+        <f>IF(COUNTIF(Sheet1!$A$2:$A$51, A5) &gt; 0, "Exists", "Doesn't Exist")</f>
+        <v>Exists</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>Exists</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="str">
+        <f>IF(COUNTIF(Sheet1!$A$2:$A$51, A6) &gt; 0, "Exists", "Doesn't Exist")</f>
+        <v>Exists</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>Doesn't Exist</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="str">
+        <f>IF(COUNTIF(Sheet1!$A$2:$A$51, A7) &gt; 0, "Exists", "Doesn't Exist")</f>
+        <v>Exists</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>Exists</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="str">
+        <f>IF(COUNTIF(Sheet1!$A$2:$A$51, A8) &gt; 0, "Exists", "Doesn't Exist")</f>
+        <v>Exists</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>Exists</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" t="str">
+        <f>IF(COUNTIF(Sheet1!$A$2:$A$51, A9) &gt; 0, "Exists", "Doesn't Exist")</f>
+        <v>Exists</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>Exists</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" t="str">
+        <f>IF(COUNTIF(Sheet1!$A$2:$A$51, A10) &gt; 0, "Exists", "Doesn't Exist")</f>
+        <v>Exists</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>Exists</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="str">
+        <f>IF(COUNTIF(Sheet1!$A$2:$A$51, A11) &gt; 0, "Exists", "Doesn't Exist")</f>
+        <v>Exists</v>
+      </c>
+      <c r="G11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>Exists</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="str">
+        <f>IF(COUNTIF(Sheet1!$A$2:$A$51, A12) &gt; 0, "Exists", "Doesn't Exist")</f>
+        <v>Exists</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>Exists</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="str">
+        <f>IF(COUNTIF(Sheet1!$A$2:$A$51, A13) &gt; 0, "Exists", "Doesn't Exist")</f>
+        <v>Exists</v>
+      </c>
+      <c r="G13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>Exists</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="E14" t="str">
+        <f>IF(COUNTIF(Sheet1!$A$2:$A$51, A14) &gt; 0, "Exists", "Doesn't Exist")</f>
+        <v>Doesn't Exist</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>Exists</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="str">
+        <f>IF(COUNTIF(Sheet1!$A$2:$A$51, A15) &gt; 0, "Exists", "Doesn't Exist")</f>
+        <v>Exists</v>
+      </c>
+      <c r="G15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>Exists</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" t="str">
+        <f>IF(COUNTIF(Sheet1!$A$2:$A$51, A16) &gt; 0, "Exists", "Doesn't Exist")</f>
+        <v>Exists</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>Exists</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="str">
+        <f>IF(COUNTIF(Sheet1!$A$2:$A$51, A17) &gt; 0, "Exists", "Doesn't Exist")</f>
+        <v>Exists</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>Exists</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" t="str">
+        <f>IF(COUNTIF(Sheet1!$A$2:$A$51, A18) &gt; 0, "Exists", "Doesn't Exist")</f>
+        <v>Exists</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>Exists</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" t="str">
+        <f>IF(COUNTIF(Sheet1!$A$2:$A$51, A19) &gt; 0, "Exists", "Doesn't Exist")</f>
+        <v>Exists</v>
+      </c>
+      <c r="G19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>Exists</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" t="str">
+        <f>IF(COUNTIF(Sheet1!$A$2:$A$51, A20) &gt; 0, "Exists", "Doesn't Exist")</f>
+        <v>Exists</v>
+      </c>
+      <c r="G20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>Exists</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" t="str">
+        <f>IF(COUNTIF(Sheet1!$A$2:$A$51, A21) &gt; 0, "Exists", "Doesn't Exist")</f>
+        <v>Exists</v>
+      </c>
+      <c r="G21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>Exists</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="str">
+        <f>IF(COUNTIF(Sheet1!$A$2:$A$51, A22) &gt; 0, "Exists", "Doesn't Exist")</f>
+        <v>Exists</v>
+      </c>
+      <c r="G22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>Exists</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="E23" t="str">
+        <f>IF(COUNTIF(Sheet1!$A$2:$A$51, A23) &gt; 0, "Exists", "Doesn't Exist")</f>
+        <v>Exists</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>Doesn't Exist</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="E24" t="str">
+        <f>IF(COUNTIF(Sheet1!$A$2:$A$51, A24) &gt; 0, "Exists", "Doesn't Exist")</f>
+        <v>Exists</v>
+      </c>
+      <c r="G24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v>Exists</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" t="str">
+        <f>IF(COUNTIF(Sheet1!$A$2:$A$51, A25) &gt; 0, "Exists", "Doesn't Exist")</f>
+        <v>Exists</v>
+      </c>
+      <c r="G25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
+        <v>Exists</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="E26" t="str">
+        <f>IF(COUNTIF(Sheet1!$A$2:$A$51, A26) &gt; 0, "Exists", "Doesn't Exist")</f>
+        <v>Exists</v>
+      </c>
+      <c r="G26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
+        <v>Exists</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="E27" t="str">
+        <f>IF(COUNTIF(Sheet1!$A$2:$A$51, A27) &gt; 0, "Exists", "Doesn't Exist")</f>
+        <v>Exists</v>
+      </c>
+      <c r="G27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
+        <v>Exists</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" t="str">
+        <f>IF(COUNTIF(Sheet1!$A$2:$A$51, A28) &gt; 0, "Exists", "Doesn't Exist")</f>
+        <v>Exists</v>
+      </c>
+      <c r="G28" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="0"/>
+        <v>Exists</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" t="str">
+        <f>IF(COUNTIF(Sheet1!$A$2:$A$51, A29) &gt; 0, "Exists", "Doesn't Exist")</f>
+        <v>Exists</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="0"/>
+        <v>Doesn't Exist</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" t="str">
+        <f>IF(COUNTIF(Sheet1!$A$2:$A$51, A30) &gt; 0, "Exists", "Doesn't Exist")</f>
+        <v>Exists</v>
+      </c>
+      <c r="G30" t="s">
+        <v>66</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="0"/>
+        <v>Exists</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="E31" t="str">
+        <f>IF(COUNTIF(Sheet1!$A$2:$A$51, A31) &gt; 0, "Exists", "Doesn't Exist")</f>
+        <v>Exists</v>
+      </c>
+      <c r="G31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="0"/>
+        <v>Exists</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="str">
+        <f>IF(COUNTIF(Sheet1!$A$2:$A$51, A32) &gt; 0, "Exists", "Doesn't Exist")</f>
+        <v>Exists</v>
+      </c>
+      <c r="G32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="0"/>
+        <v>Exists</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" t="str">
+        <f>IF(COUNTIF(Sheet1!$A$2:$A$51, A33) &gt; 0, "Exists", "Doesn't Exist")</f>
+        <v>Exists</v>
+      </c>
+      <c r="G33" t="s">
+        <v>68</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="0"/>
+        <v>Exists</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="str">
+        <f>IF(COUNTIF(Sheet1!$A$2:$A$51, A34) &gt; 0, "Exists", "Doesn't Exist")</f>
+        <v>Exists</v>
+      </c>
+      <c r="G34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="0"/>
+        <v>Exists</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" t="str">
+        <f>IF(COUNTIF(Sheet1!$A$2:$A$51, A35) &gt; 0, "Exists", "Doesn't Exist")</f>
+        <v>Exists</v>
+      </c>
+      <c r="G35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="0"/>
+        <v>Exists</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" t="str">
+        <f>IF(COUNTIF(Sheet1!$A$2:$A$51, A36) &gt; 0, "Exists", "Doesn't Exist")</f>
+        <v>Exists</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="0"/>
+        <v>Exists</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="str">
+        <f>IF(COUNTIF(Sheet1!$A$2:$A$51, A37) &gt; 0, "Exists", "Doesn't Exist")</f>
+        <v>Exists</v>
+      </c>
+      <c r="G37" t="s">
+        <v>70</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="0"/>
+        <v>Exists</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" t="str">
+        <f>IF(COUNTIF(Sheet1!$A$2:$A$51, A38) &gt; 0, "Exists", "Doesn't Exist")</f>
+        <v>Exists</v>
+      </c>
+      <c r="G38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="0"/>
+        <v>Exists</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="E39" t="str">
+        <f>IF(COUNTIF(Sheet1!$A$2:$A$51, A39) &gt; 0, "Exists", "Doesn't Exist")</f>
+        <v>Exists</v>
+      </c>
+      <c r="G39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="0"/>
+        <v>Exists</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" t="str">
+        <f>IF(COUNTIF(Sheet1!$A$2:$A$51, A40) &gt; 0, "Exists", "Doesn't Exist")</f>
+        <v>Exists</v>
+      </c>
+      <c r="G40" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="0"/>
+        <v>Exists</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" t="str">
+        <f>IF(COUNTIF(Sheet1!$A$2:$A$51, A41) &gt; 0, "Exists", "Doesn't Exist")</f>
+        <v>Exists</v>
+      </c>
+      <c r="G41" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="0"/>
+        <v>Exists</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" t="str">
+        <f>IF(COUNTIF(Sheet1!$A$2:$A$51, A42) &gt; 0, "Exists", "Doesn't Exist")</f>
+        <v>Exists</v>
+      </c>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="0"/>
+        <v>Exists</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" t="str">
+        <f>IF(COUNTIF(Sheet1!$A$2:$A$51, A43) &gt; 0, "Exists", "Doesn't Exist")</f>
+        <v>Exists</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="0"/>
+        <v>Exists</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>72</v>
+      </c>
+      <c r="G44" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="0"/>
+        <v>Exists</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>42</v>
+      </c>
+      <c r="G45" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="0"/>
+        <v>Exists</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" t="s">
+        <v>71</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="0"/>
+        <v>Exists</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G47" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="0"/>
+        <v>Exists</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="G48" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="0"/>
+        <v>Exists</v>
+      </c>
+    </row>
+    <row r="49" spans="7:8">
+      <c r="G49" t="s">
+        <v>7</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="0"/>
+        <v>Exists</v>
+      </c>
+    </row>
+    <row r="50" spans="7:8">
+      <c r="G50" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="0"/>
+        <v>Exists</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Src/manual_polarity.xlsx
+++ b/Src/manual_polarity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Я\Desktop\ARP project\ARP_Github\Src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artem\OneDrive\Desktop\ARP\Practice\ARP\Src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259757D7-A8C0-4E7C-900B-1E0B643753F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BB306E-57BD-4A28-91B3-CA88D7B78A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{D5F10D8F-80C8-5349-8657-CD65A48D66A3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{D5F10D8F-80C8-5349-8657-CD65A48D66A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -663,19 +663,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57A2C49-F82B-7E47-A1BB-F00E2C6EA1FF}">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A51"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="55.5" customWidth="1"/>
-    <col min="5" max="5" width="30.59765625" customWidth="1"/>
+    <col min="5" max="5" width="30.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -689,7 +689,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -702,8 +702,11 @@
       <c r="E2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="F2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -716,8 +719,11 @@
       <c r="E3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="F3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -730,8 +736,11 @@
       <c r="E4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="F4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -744,9 +753,8 @@
       <c r="E5" t="s">
         <v>51</v>
       </c>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12">
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -760,7 +768,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -774,7 +782,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -787,8 +795,11 @@
       <c r="E8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -802,7 +813,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -816,7 +827,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
@@ -830,7 +841,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -844,7 +855,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -858,7 +869,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -872,7 +883,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -886,7 +897,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -1444,14 +1455,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0B1DA4-651D-4DC6-BDF7-AC40A2C5DC6D}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
-    <col min="3" max="3" width="34.59765625" customWidth="1"/>
-    <col min="7" max="7" width="46.59765625" customWidth="1"/>
+    <col min="3" max="3" width="34.58203125" customWidth="1"/>
+    <col min="7" max="7" width="46.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
